--- a/doc/app/pg0171/エビデンス/No9.xlsx
+++ b/doc/app/pg0171/エビデンス/No9.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0171\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B6BB1-1A3D-4190-A0DE-50753274D1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32A20B-D40C-4DB1-8681-61DAE939331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1回目" sheetId="1" r:id="rId1"/>
+    <sheet name="2回目 " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>単体テストエビデンス</t>
   </si>
@@ -505,6 +506,354 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>67785</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380E77C6-2474-420E-8807-060AD5E0E94E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="1854200"/>
+          <a:ext cx="7954485" cy="5477639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120EDBE4-8468-4E60-AE99-0E794B8B7E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4768850" y="3905250"/>
+          <a:ext cx="2101850" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22948"/>
+            <a:gd name="adj2" fmla="val -139825"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>このカード番号のカードは存在しないことを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>40371</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4AE7A2-3E4F-44CA-A2CE-3768150C4F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="7797800"/>
+          <a:ext cx="16270971" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DAB577-87FE-4694-8DA3-478ADE18975C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3251200" y="9169400"/>
+          <a:ext cx="2101850" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22948"/>
+            <a:gd name="adj2" fmla="val -139825"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>パラメータ一覧の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>No09</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>の通り引数を与える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E830B2-2E6A-41A5-AC57-ACBFB8098193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="12090400"/>
+          <a:ext cx="2101850" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22948"/>
+            <a:gd name="adj2" fmla="val -139825"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>想定通りのメッセージが出た</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>21206</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036B7523-D42A-3B22-C56E-86EE32399D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="10109200"/>
+          <a:ext cx="15451706" cy="1181265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -794,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:EL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+    <sheetView topLeftCell="B58" workbookViewId="0">
       <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
@@ -1113,4 +1462,329 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26593E0-60A2-456E-B66D-B382283E0440}">
+  <dimension ref="B2:EL6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="BP72" sqref="BP72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:142" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
+      <c r="DM2" s="4"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="4"/>
+      <c r="DP2" s="4"/>
+      <c r="DQ2" s="4"/>
+      <c r="DR2" s="4"/>
+      <c r="DS2" s="4"/>
+      <c r="DT2" s="4"/>
+      <c r="DU2" s="4"/>
+      <c r="DV2" s="4"/>
+      <c r="DW2" s="4"/>
+      <c r="DX2" s="4"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
+      <c r="EB2" s="4"/>
+      <c r="EC2" s="4"/>
+      <c r="ED2" s="4"/>
+      <c r="EE2" s="4"/>
+      <c r="EF2" s="4"/>
+      <c r="EG2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
+    </row>
+    <row r="4" spans="2:142" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+    </row>
+    <row r="5" spans="2:142" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+    </row>
+    <row r="6" spans="2:142" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:EL2"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="X4:AS4"/>
+    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="X5:AS5"/>
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="X6:AS6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>